--- a/pequenos-medios-de-generacion-distribuida_v1_pmgd_comunas.xlsx
+++ b/pequenos-medios-de-generacion-distribuida_v1_pmgd_comunas.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F407"/>
+  <dimension ref="A1:F410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.87</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>743.22</t>
+          <t>934.62</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Los Sauces</t>
+          <t>Los Andes</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5955,32 +5955,36 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Los Vilos</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
+          <t>Los Sauces</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C186" t="inlineStr">
         <is>
           <t>Petróleo Diesel</t>
@@ -5988,17 +5992,17 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>341.39</t>
+          <t>5.98</t>
         </is>
       </c>
     </row>
@@ -6008,11 +6012,7 @@
           <t>Los Vilos</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
           <t>Petróleo Diesel</t>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>341.39</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6062,14 +6062,14 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Los Álamos</t>
+          <t>Los Vilos</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6079,35 +6079,39 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.95</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Los Ángeles</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
+          <t>Los Álamos</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Eólica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6122,7 +6126,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>56.35</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -6132,14 +6136,10 @@
           <t>Los Ángeles</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Eólica</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>56.35</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PMGD</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Eólica</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>86.4</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.66</t>
         </is>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6250,112 +6250,112 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.38</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Machalí</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr"/>
+          <t>Los Ángeles</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>225.14</t>
+          <t>4.74</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Machalí</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
+          <t>Los Ángeles</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>23.85</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Maipú</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Machalí</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>225.14</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Marchihue</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Machalí</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6370,136 +6370,140 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>29.81</t>
+          <t>23.85</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Mariquina</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr"/>
+          <t>Maipú</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>5.77</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>María Elena</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr"/>
+          <t>Marchihue</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Concentración Solar de Potencia</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>29.81</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>María Elena</t>
+          <t>Mariquina</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>558.81</t>
+          <t>61.0</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>María Pinto</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>María Elena</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Concentración Solar de Potencia</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>108.27</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mejillones</t>
+          <t>María Elena</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Carbón</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6514,134 +6518,130 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2201.61</t>
+          <t>565.85</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Mejillones</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr"/>
+          <t>María Pinto</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>1256.52</t>
+          <t>5.98</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Melipeuco</t>
+          <t>Mejillones</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Carbón</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>28.39</t>
+          <t>2201.61</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Melipeuco</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Mejillones</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>1256.52</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Melipilla</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Melipeuco</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>28.39</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Melipilla</t>
+          <t>Melipeuco</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6656,17 +6656,17 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>11.71</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6698,14 +6698,14 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>44.76</t>
+          <t>0.99</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Molina</t>
+          <t>Melipilla</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6715,29 +6715,29 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.39</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Molina</t>
+          <t>Melipilla</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6747,22 +6747,22 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>44.76</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6826,42 +6826,46 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>20.89</t>
+          <t>6.17</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Monte Patria</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr"/>
+          <t>Molina</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Monte Patria</t>
+          <t>Molina</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6871,22 +6875,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>20.89</t>
         </is>
       </c>
     </row>
@@ -6896,14 +6900,10 @@
           <t>Monte Patria</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6918,63 +6918,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>17.95</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Mostazal</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr"/>
+          <t>Monte Patria</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Mostazal</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr"/>
+          <t>Monte Patria</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>247.9</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -6984,14 +6992,10 @@
           <t>Mostazal</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7006,46 +7010,42 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>14.31</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Mulchén</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+          <t>Mostazal</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>247.9</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Mulchén</t>
+          <t>Mostazal</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7055,22 +7055,22 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Eólica</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>20.7</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PMGD</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>7.68</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Eólica</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7134,20 +7134,24 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Nacimiento</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
+          <t>Mulchén</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7162,24 +7166,24 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>8.19</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Nacimiento</t>
+          <t>Mulchén</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PMG</t>
+          <t>PMGD</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7194,278 +7198,278 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>8.38</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Nancagua</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>62.7</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Natales</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr"/>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Natales</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr"/>
+          <t>Nancagua</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>6.99</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Negrete</t>
+          <t>Natales</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Eólica</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>44.93</t>
+          <t>9.27</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Ninhue</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Natales</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.24</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Ollagüe</t>
+          <t>Negrete</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Geotérmica</t>
+          <t>Eólica</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>45.6</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Osorno</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr"/>
+          <t>Ninhue</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Osorno</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Ollagüe</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Geotérmica</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>39.7</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Ovalle</t>
+          <t>Osorno</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Eólica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>501.04</t>
+          <t>13.29</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Ovalle</t>
+          <t>Osorno</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7475,22 +7479,22 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>11.99</t>
         </is>
       </c>
     </row>
@@ -7500,14 +7504,10 @@
           <t>Ovalle</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Eólica</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7522,14 +7522,14 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>38.03</t>
+          <t>501.04</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Padre Hurtado</t>
+          <t>Ovalle</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7539,29 +7539,29 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>4.42</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Padre Hurtado</t>
+          <t>Ovalle</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -7576,24 +7576,24 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>38.03</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Padre Las Casas</t>
+          <t>Padre Hurtado</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -7603,60 +7603,68 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Palena</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr"/>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Palena</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr"/>
+          <t>Padre Las Casas</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C241" t="inlineStr">
         <is>
           <t>Petróleo Diesel</t>
@@ -7664,84 +7672,80 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Palmilla</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Palena</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Panguipulli</t>
+          <t>Palena</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>51.16</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Panguipulli</t>
+          <t>Palmilla</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7751,22 +7755,22 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>0.37</t>
         </is>
       </c>
     </row>
@@ -7776,14 +7780,10 @@
           <t>Panguipulli</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7798,14 +7798,14 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>51.16</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Panquehue</t>
+          <t>Panguipulli</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -7815,29 +7815,29 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>5.22</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Panquehue</t>
+          <t>Panguipulli</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -7847,57 +7847,61 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Parral</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr"/>
+          <t>Panquehue</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>23.83</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Parral</t>
+          <t>Panquehue</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7912,56 +7916,52 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>14.99</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Pemuco</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Parral</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>23.83</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Pencahue</t>
+          <t>Parral</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7986,14 +7986,14 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Penco</t>
+          <t>Pemuco</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8003,29 +8003,29 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>7.2</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Peralillo</t>
+          <t>Pencahue</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8040,24 +8040,24 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>2.99</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Petorca</t>
+          <t>Penco</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8067,29 +8067,29 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Peñalolén</t>
+          <t>Peralillo</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8104,55 +8104,63 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>11.9</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Pica</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr"/>
+          <t>Petorca</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>44.13</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Pica</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr"/>
+          <t>Peñalolén</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C257" t="inlineStr">
         <is>
           <t>Solar Fotovoltaica</t>
@@ -8160,17 +8168,17 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -8180,14 +8188,10 @@
           <t>Pica</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8202,46 +8206,42 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>44.13</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Pichidegua</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Pica</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Tarapacá</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>150.0</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Pichidegua</t>
+          <t>Pica</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8256,52 +8256,56 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Tarapacá</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Pirque</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr"/>
+          <t>Pichidegua</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>0.37</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Pirque</t>
+          <t>Pichidegua</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8311,22 +8315,22 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.99</t>
         </is>
       </c>
     </row>
@@ -8336,14 +8340,10 @@
           <t>Pirque</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8358,14 +8358,14 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>21.75</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Pitrufquén</t>
+          <t>Pirque</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -8380,24 +8380,24 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.77</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Placilla</t>
+          <t>Pirque</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -8412,133 +8412,137 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>5.44</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Porvenir</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr"/>
+          <t>Pitrufquén</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>0.59</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Porvenir</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr"/>
+          <t>Placilla</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Pozo Almonte</t>
+          <t>Porvenir</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>234.15</t>
+          <t>4.99</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Pozo Almonte</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+          <t>Porvenir</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>3.06</t>
         </is>
       </c>
     </row>
@@ -8548,11 +8552,7 @@
           <t>Pozo Almonte</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr">
         <is>
           <t>Solar Fotovoltaica</t>
@@ -8570,42 +8570,46 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>234.15</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Puchuncaví</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr"/>
+          <t>Pozo Almonte</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Carbón</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Tarapacá</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>790.84</t>
+          <t>7.5</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Pucón</t>
+          <t>Pozo Almonte</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -8615,57 +8619,57 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Tarapacá</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>23.91</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Puente Alto</t>
+          <t>Puchuncaví</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Carbón</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>51.85</t>
+          <t>790.84</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Puente Alto</t>
+          <t>Pucón</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -8680,52 +8684,52 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Puente Alto</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>51.85</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Puente Alto</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -8740,17 +8744,17 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>7.34</t>
         </is>
       </c>
     </row>
@@ -8760,11 +8764,7 @@
           <t>Puerto Montt</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B277" t="inlineStr"/>
       <c r="C277" t="inlineStr">
         <is>
           <t>Petróleo Diesel</t>
@@ -8782,19 +8782,19 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>20.36</t>
+          <t>80.84</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Puerto Octay</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>PMG</t>
+          <t>PMGD</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -8814,14 +8814,14 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>8.77</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Puerto Octay</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -8831,7 +8831,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8846,19 +8846,19 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>20.36</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Puerto Varas</t>
+          <t>Puerto Octay</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>PMGD</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -8878,14 +8878,14 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>22.18</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Puerto Varas</t>
+          <t>Puerto Octay</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8910,14 +8910,14 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.64</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Punitaqui</t>
+          <t>Puerto Varas</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -8927,29 +8927,29 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Punitaqui</t>
+          <t>Puerto Varas</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -8959,17 +8959,17 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -8981,56 +8981,64 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Punta Arenas</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr"/>
+          <t>Punitaqui</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Eólica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Punta Arenas</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr"/>
+          <t>Punitaqui</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -9043,7 +9051,7 @@
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Eólica</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9058,81 +9066,77 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>2.55</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Putaendo</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>83.05</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Putaendo</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>6.41</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Putre</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr"/>
+          <t>Putaendo</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C289" t="inlineStr">
         <is>
           <t>Mini Hidráulica de Pasada</t>
@@ -9140,24 +9144,24 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Putre</t>
+          <t>Putaendo</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9167,60 +9171,64 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Putre</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>10.83</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Puyehue</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr"/>
+          <t>Putre</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C292" t="inlineStr">
         <is>
           <t>Mini Hidráulica de Pasada</t>
@@ -9228,17 +9236,17 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -9248,14 +9256,10 @@
           <t>Puyehue</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+      <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -9270,7 +9274,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>25.91</t>
+          <t>59.3</t>
         </is>
       </c>
     </row>
@@ -9280,11 +9284,7 @@
           <t>Puyehue</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr">
         <is>
           <t>Mini Hidráulica de Pasada</t>
@@ -9302,20 +9302,24 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>11.84</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Quellón</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr"/>
+          <t>Puyehue</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -9330,24 +9334,24 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>25.91</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Quellón</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PMG</t>
+          <t>PMGD</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -9362,21 +9366,17 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Quilicura</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Quellón</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr">
         <is>
           <t>Petróleo Diesel</t>
@@ -9384,52 +9384,56 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>17.52</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Quilleco</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr"/>
+          <t>Quellón</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>248.78</t>
+          <t>9.06</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Quilleco</t>
+          <t>Quilicura</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -9439,78 +9443,82 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Quillota</t>
+          <t>Quilleco</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>1484.08</t>
+          <t>248.78</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Quillota</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr"/>
+          <t>Quilleco</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>106.92</t>
+          <t>6.55</t>
         </is>
       </c>
     </row>
@@ -9520,14 +9528,10 @@
           <t>Quillota</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -9542,24 +9546,20 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>1484.08</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Quilpué</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Quillota</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -9574,14 +9574,14 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>106.92</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Quinta de Tilcoco</t>
+          <t>Quillota</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -9596,30 +9596,34 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.67</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Quintero</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr"/>
+          <t>Quilpué</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -9634,14 +9638,14 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>255.2</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Rancagua</t>
+          <t>Quinta de Tilcoco</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -9666,130 +9670,130 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>7.97</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Renaico</t>
+          <t>Quintero</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Eólica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>380.8</t>
+          <t>255.2</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Renca</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr"/>
+          <t>Rancagua</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>370.1</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Renca</t>
+          <t>Renaico</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Eólica</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>95.72</t>
+          <t>380.8</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Rengo</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Renca</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>25.91</t>
+          <t>370.1</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Requínoa</t>
+          <t>Renca</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -9800,24 +9804,24 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>43.17</t>
+          <t>95.72</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Requínoa</t>
+          <t>Rengo</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -9842,46 +9846,42 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>25.91</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Retiro</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Requínoa</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>43.17</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Rinconada</t>
+          <t>Requínoa</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -9896,24 +9896,24 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>5.69</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Romeral</t>
+          <t>Retiro</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -9945,112 +9945,120 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Ránquil</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr"/>
+          <t>Rinconada</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>14.73</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Ránquil</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr"/>
+          <t>Romeral</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Río Bueno</t>
+          <t>Ránquil</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>40.68</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Río Bueno</t>
+          <t>Ránquil</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>50.58</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
@@ -10060,14 +10068,10 @@
           <t>Río Bueno</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B320" t="inlineStr"/>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -10082,7 +10086,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>40.68</t>
         </is>
       </c>
     </row>
@@ -10092,14 +10096,10 @@
           <t>Río Bueno</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -10114,14 +10114,14 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>50.58</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Río Claro</t>
+          <t>Río Bueno</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -10136,27 +10136,31 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>6.57</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Río Ibáñez</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr"/>
+          <t>Río Bueno</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C323" t="inlineStr">
         <is>
           <t>Petróleo Diesel</t>
@@ -10164,24 +10168,24 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Región Aisén del Gral.Carlos Ibáñez del Campo</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.99</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Río Negro</t>
+          <t>Río Claro</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -10191,61 +10195,57 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.29</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Sagrada Familia</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Río Ibáñez</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Aisén del Gral.Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>0.76</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Salamanca</t>
+          <t>Río Negro</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -10255,29 +10255,29 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>2.99</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Sagrada Familia</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -10287,29 +10287,29 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>San Bernardo</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -10319,29 +10319,29 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>5.88</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>San Bernardo</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -10351,22 +10351,22 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>5.83</t>
         </is>
       </c>
     </row>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -10398,14 +10398,14 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>San Carlos</t>
+          <t>San Bernardo</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -10415,78 +10415,86 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>20.57</t>
+          <t>8.15</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>San Clemente</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr"/>
+          <t>San Bernardo</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Hidráulica de Embalse</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>105.82</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>San Clemente</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr"/>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>238.31</t>
+          <t>20.57</t>
         </is>
       </c>
     </row>
@@ -10499,7 +10507,7 @@
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Hidráulica de Embalse</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -10514,7 +10522,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>49.55</t>
+          <t>105.82</t>
         </is>
       </c>
     </row>
@@ -10524,14 +10532,10 @@
           <t>San Clemente</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+      <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -10546,7 +10550,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>21.16</t>
+          <t>238.31</t>
         </is>
       </c>
     </row>
@@ -10556,11 +10560,7 @@
           <t>San Clemente</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr">
         <is>
           <t>Mini Hidráulica de Pasada</t>
@@ -10578,42 +10578,46 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>49.55</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>San Esteban</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr"/>
+          <t>San Clemente</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>65.44</t>
+          <t>21.16</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>San Esteban</t>
+          <t>San Clemente</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -10623,39 +10627,35 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.27</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>San Felipe</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>San Esteban</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -10670,14 +10670,14 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>65.44</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>San Esteban</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -10702,67 +10702,71 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>16.99</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>San Fernando</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr"/>
+          <t>San Felipe</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>417.1</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>PMG</t>
+          <t>PMGD</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>16.99</t>
         </is>
       </c>
     </row>
@@ -10772,14 +10776,10 @@
           <t>San Fernando</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -10794,166 +10794,166 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>417.1</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>San Javier</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>PMGD</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>22.9</t>
+          <t>7.47</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>San José de Maipo</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr"/>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>253.42</t>
+          <t>2.98</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>San José de Maipo</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr"/>
+          <t>San Javier</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>22.9</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>San Nicolás</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>253.42</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>San Pablo</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>24.84</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>San Pedro</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -10968,24 +10968,24 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>46.74</t>
+          <t>5.8</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>San Pedro de la Paz</t>
+          <t>San Pablo</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -11000,12 +11000,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -11017,7 +11017,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>San Rafael</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -11032,24 +11032,24 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>46.74</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>San Vicente</t>
+          <t>San Pedro de la Paz</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -11059,82 +11059,86 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>19.43</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Santa Bárbara</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr"/>
+          <t>San Rafael</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>460.78</t>
+          <t>2.99</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Santa Bárbara</t>
+          <t>San Vicente</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>PMG</t>
+          <t>PMGD</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>19.43</t>
         </is>
       </c>
     </row>
@@ -11144,14 +11148,10 @@
           <t>Santa Bárbara</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B355" t="inlineStr"/>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -11166,46 +11166,46 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>460.78</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>PMGD</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Santa María</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -11215,60 +11215,68 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>0.82</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Sierra Gorda</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr"/>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Eólica</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>110.62</t>
+          <t>6.88</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Sierra Gorda</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr"/>
+          <t>Santa María</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C359" t="inlineStr">
         <is>
           <t>Solar Fotovoltaica</t>
@@ -11276,77 +11284,73 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>135.7</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Talagante</t>
+          <t>Sierra Gorda</t>
         </is>
       </c>
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Eólica</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>110.62</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Talagante</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+          <t>Sierra Gorda</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>135.7</t>
         </is>
       </c>
     </row>
@@ -11356,14 +11360,10 @@
           <t>Talagante</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>13.5</t>
         </is>
       </c>
     </row>
@@ -11390,12 +11390,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>PMGD</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -11410,14 +11410,14 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Talca</t>
+          <t>Talagante</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -11427,78 +11427,86 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>20.97</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Taltal</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr"/>
+          <t>Talagante</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Eólica</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Región Metropolitana de Santiago</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
           <t>3.0</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>Región de Antofagasta</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>98.11</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Taltal</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr"/>
+          <t>Talca</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>239.39</t>
+          <t>20.97</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11519,7 @@
       <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Eólica</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -11526,14 +11534,14 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>241.15</t>
+          <t>98.11</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Teno</t>
+          <t>Taltal</t>
         </is>
       </c>
       <c r="B368" t="inlineStr"/>
@@ -11544,45 +11552,45 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>43.68</t>
+          <t>239.39</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Teno</t>
+          <t>Taltal</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>241.15</t>
         </is>
       </c>
     </row>
@@ -11592,14 +11600,10 @@
           <t>Teno</t>
         </is>
       </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -11614,7 +11618,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>43.68</t>
         </is>
       </c>
     </row>
@@ -11624,11 +11628,7 @@
           <t>Teno</t>
         </is>
       </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B371" t="inlineStr"/>
       <c r="C371" t="inlineStr">
         <is>
           <t>Petróleo Diesel</t>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>72.41</t>
         </is>
       </c>
     </row>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -11678,42 +11678,46 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>4.86</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Tierra Amarilla</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr"/>
+          <t>Teno</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>45.85</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Tierra Amarilla</t>
+          <t>Teno</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -11728,55 +11732,59 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>21.29</t>
+          <t>11.66</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Tiltil</t>
+          <t>Tierra Amarilla</t>
         </is>
       </c>
       <c r="B375" t="inlineStr"/>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Atacama</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>18.2</t>
+          <t>45.85</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Tiltil</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr"/>
+          <t>Tierra Amarilla</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C376" t="inlineStr">
         <is>
           <t>Solar Fotovoltaica</t>
@@ -11784,17 +11792,17 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región de Atacama</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>21.29</t>
         </is>
       </c>
     </row>
@@ -11804,11 +11812,7 @@
           <t>Tiltil</t>
         </is>
       </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+      <c r="B377" t="inlineStr"/>
       <c r="C377" t="inlineStr">
         <is>
           <t>Biomasa</t>
@@ -11826,7 +11830,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>18.2</t>
         </is>
       </c>
     </row>
@@ -11836,14 +11840,10 @@
           <t>Tiltil</t>
         </is>
       </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>90.83</t>
         </is>
       </c>
     </row>
@@ -11870,12 +11870,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>PMGD</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -11890,14 +11890,14 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Tirúa</t>
+          <t>Tiltil</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -11912,55 +11912,63 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Tocopilla</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr"/>
+          <t>Tiltil</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Carbón</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>262.29</t>
+          <t>25.13</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Tocopilla</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr"/>
+          <t>Tirúa</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C382" t="inlineStr">
         <is>
           <t>Petróleo Diesel</t>
@@ -11968,87 +11976,87 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>680.2</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Traiguén</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+          <t>Tocopilla</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Carbón</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>262.29</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Tucapel</t>
+          <t>Tocopilla</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región de Antofagasta</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>319.17</t>
+          <t>680.2</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Valdivia</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr"/>
+          <t>Traiguén</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C385" t="inlineStr">
         <is>
           <t>Petróleo Diesel</t>
@@ -12056,56 +12064,52 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>101.29</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Valdivia</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+          <t>Tucapel</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>319.17</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Vallenar</t>
+          <t>Valdivia</t>
         </is>
       </c>
       <c r="B387" t="inlineStr"/>
@@ -12116,45 +12120,49 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>101.36</t>
+          <t>101.29</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Vallenar</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr"/>
+          <t>Valdivia</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>196.0</t>
+          <t>11.6</t>
         </is>
       </c>
     </row>
@@ -12164,14 +12172,10 @@
           <t>Vallenar</t>
         </is>
       </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+      <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -12186,7 +12190,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>101.36</t>
         </is>
       </c>
     </row>
@@ -12196,11 +12200,7 @@
           <t>Vallenar</t>
         </is>
       </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
+      <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr">
         <is>
           <t>Solar Fotovoltaica</t>
@@ -12218,14 +12218,14 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>196.0</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Vallenar</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -12235,29 +12235,29 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Atacama</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Vallenar</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -12267,22 +12267,22 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Atacama</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>PMGD</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -12346,14 +12346,14 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Vicuña</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -12363,29 +12363,29 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Vicuña</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -12400,24 +12400,24 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>0.21</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Vilcún</t>
+          <t>Vicuña</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -12432,24 +12432,24 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.38</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Villa Alegre</t>
+          <t>Vicuña</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -12464,24 +12464,24 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Villarrica</t>
+          <t>Vilcún</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -12506,14 +12506,14 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.59</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Viña del Mar</t>
+          <t>Villa Alegre</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -12528,52 +12528,56 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Yerbas Buenas</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr"/>
+          <t>Villa Alemana</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>36.91</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Yerbas Buenas</t>
+          <t>Villarrica</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -12583,29 +12587,29 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Solar Fotovoltaica</t>
+          <t>Mini Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Yumbel</t>
+          <t>Viña del Mar</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -12615,90 +12619,94 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Yungay</t>
+          <t>Yerbas Buenas</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Hidráulica de Pasada</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>36.91</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Yungay</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr"/>
+          <t>Yerbas Buenas</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Mini Hidráulica de Pasada</t>
+          <t>Solar Fotovoltaica</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>19.43</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Ñiquén</t>
+          <t>Yumbel</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PMG</t>
+          <t>PMGD</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -12708,47 +12716,135 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.98</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
+          <t>Yungay</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Biomasa</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Yungay</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Mini Hidráulica de Pasada</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
           <t>Ñiquén</t>
         </is>
       </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>PMGD</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Petróleo Diesel</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Ñiquén</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>PMGD</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
         <is>
           <t>Solar Fotovoltaica</t>
         </is>
       </c>
-      <c r="D407" t="inlineStr">
+      <c r="D410" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
-      <c r="E407" t="inlineStr">
+      <c r="E410" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="F407" t="inlineStr">
+      <c r="F410" t="inlineStr">
         <is>
           <t>5.98</t>
         </is>
